--- a/doc/ue_weakptr.xlsx
+++ b/doc/ue_weakptr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6548E2-FB16-4D0F-B16E-999CAC0FE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>/**</t>
   </si>
@@ -55,13 +54,133 @@
   </si>
   <si>
     <t>原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>ObjectIndex;</t>
+  </si>
+  <si>
+    <t>ObjectSerialNumber;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就返回已经存在的serialNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，这个SerailNumber就存在两个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakObjPtr上一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家所在的ObjItem上一份（对象销毁则会重置为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次WeakObjPtr获取对象的时候，先看当前的SerailNumber和ObjItem上是否一致，一致则认为对象存在，不一致就是对象被销毁或者item重新利用了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计的相当鸡贼，在构造WeakObjectPtr的时候，如果传入的Obj对应的位置上Item里面的SerialNumber==0，则新分配（int32，每次++）一个返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Private (inlined) version for internal use only. */</t>
+  </si>
+  <si>
+    <t>FORCEINLINE_DEBUGGABLE UObject* Internal_Get(bool bEvenIfPendingKill) const</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FUObjectItem* const ObjectItem = Internal_GetObjectItem();</t>
+  </si>
+  <si>
+    <t>return ((ObjectItem != nullptr) &amp;&amp; GUObjectArray.IsValid(ObjectItem, bEvenIfPendingKill)) ? (UObject*)ObjectItem-&gt;Object : nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FORCEINLINE FUObjectItem* Internal_GetObjectItem() const</t>
+  </si>
+  <si>
+    <t>if (ObjectSerialNumber == 0)</t>
+  </si>
+  <si>
+    <t>checkSlow(ObjectIndex == 0 || ObjectIndex == -1); // otherwise this is a corrupted weak pointer</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>if (ObjectIndex &lt; 0)</t>
+  </si>
+  <si>
+    <t>FUObjectItem* const ObjectItem = GUObjectArray.IndexToObject(ObjectIndex);</t>
+  </si>
+  <si>
+    <t>if (!ObjectItem)</t>
+  </si>
+  <si>
+    <t>if (!SerialNumbersMatch(ObjectItem))</t>
+  </si>
+  <si>
+    <t>return ObjectItem;</t>
+  </si>
+  <si>
+    <t>看看两个SerialNumber是否匹配，相当鸡贼啊，真高明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FWeakObjectPtr::Get(/*bool bEvenIfPendingKill = false*/) const</t>
+  </si>
+  <si>
+    <t>// Using a literal here allows the optimizer to remove branches later down the chain.</t>
+  </si>
+  <si>
+    <t>return Internal_Get(false);</t>
+  </si>
+  <si>
+    <t>获取函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE void Reset()</t>
+  </si>
+  <si>
+    <t>ObjectIndex = INDEX_NONE;</t>
+  </si>
+  <si>
+    <t>ObjectSerialNumber = 0;</t>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计很高明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,63 +516,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_weakptr.xlsx
+++ b/doc/ue_weakptr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,117 +63,119 @@
     <t>ObjectIndex;</t>
   </si>
   <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就返回已经存在的serialNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，这个SerailNumber就存在两个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakObjPtr上一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家所在的ObjItem上一份（对象销毁则会重置为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次WeakObjPtr获取对象的时候，先看当前的SerailNumber和ObjItem上是否一致，一致则认为对象存在，不一致就是对象被销毁或者item重新利用了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计的相当鸡贼，在构造WeakObjectPtr的时候，如果传入的Obj对应的位置上Item里面的SerialNumber==0，则新分配（int32，每次++）一个返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Private (inlined) version for internal use only. */</t>
+  </si>
+  <si>
+    <t>FORCEINLINE_DEBUGGABLE UObject* Internal_Get(bool bEvenIfPendingKill) const</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FUObjectItem* const ObjectItem = Internal_GetObjectItem();</t>
+  </si>
+  <si>
+    <t>return ((ObjectItem != nullptr) &amp;&amp; GUObjectArray.IsValid(ObjectItem, bEvenIfPendingKill)) ? (UObject*)ObjectItem-&gt;Object : nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FORCEINLINE FUObjectItem* Internal_GetObjectItem() const</t>
+  </si>
+  <si>
+    <t>if (ObjectSerialNumber == 0)</t>
+  </si>
+  <si>
+    <t>checkSlow(ObjectIndex == 0 || ObjectIndex == -1); // otherwise this is a corrupted weak pointer</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>if (ObjectIndex &lt; 0)</t>
+  </si>
+  <si>
+    <t>if (!ObjectItem)</t>
+  </si>
+  <si>
+    <t>if (!SerialNumbersMatch(ObjectItem))</t>
+  </si>
+  <si>
+    <t>return ObjectItem;</t>
+  </si>
+  <si>
+    <t>看看两个SerialNumber是否匹配，相当鸡贼啊，真高明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FWeakObjectPtr::Get(/*bool bEvenIfPendingKill = false*/) const</t>
+  </si>
+  <si>
+    <t>// Using a literal here allows the optimizer to remove branches later down the chain.</t>
+  </si>
+  <si>
+    <t>return Internal_Get(false);</t>
+  </si>
+  <si>
+    <t>获取函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE void Reset()</t>
+  </si>
+  <si>
+    <t>ObjectIndex = INDEX_NONE;</t>
+  </si>
+  <si>
+    <t>ObjectSerialNumber = 0;</t>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计很高明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ObjectSerialNumber;</t>
-  </si>
-  <si>
-    <t>成员变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则就返回已经存在的serialNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以，这个SerailNumber就存在两个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeakObjPtr上一份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家所在的ObjItem上一份（对象销毁则会重置为0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次WeakObjPtr获取对象的时候，先看当前的SerailNumber和ObjItem上是否一致，一致则认为对象存在，不一致就是对象被销毁或者item重新利用了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计的相当鸡贼，在构造WeakObjectPtr的时候，如果传入的Obj对应的位置上Item里面的SerialNumber==0，则新分配（int32，每次++）一个返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** Private (inlined) version for internal use only. */</t>
-  </si>
-  <si>
-    <t>FORCEINLINE_DEBUGGABLE UObject* Internal_Get(bool bEvenIfPendingKill) const</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>FUObjectItem* const ObjectItem = Internal_GetObjectItem();</t>
-  </si>
-  <si>
-    <t>return ((ObjectItem != nullptr) &amp;&amp; GUObjectArray.IsValid(ObjectItem, bEvenIfPendingKill)) ? (UObject*)ObjectItem-&gt;Object : nullptr;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>FORCEINLINE FUObjectItem* Internal_GetObjectItem() const</t>
-  </si>
-  <si>
-    <t>if (ObjectSerialNumber == 0)</t>
-  </si>
-  <si>
-    <t>checkSlow(ObjectIndex == 0 || ObjectIndex == -1); // otherwise this is a corrupted weak pointer</t>
-  </si>
-  <si>
-    <t>return nullptr;</t>
-  </si>
-  <si>
-    <t>if (ObjectIndex &lt; 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FUObjectItem* const ObjectItem = GUObjectArray.IndexToObject(ObjectIndex);</t>
-  </si>
-  <si>
-    <t>if (!ObjectItem)</t>
-  </si>
-  <si>
-    <t>if (!SerialNumbersMatch(ObjectItem))</t>
-  </si>
-  <si>
-    <t>return ObjectItem;</t>
-  </si>
-  <si>
-    <t>看看两个SerialNumber是否匹配，相当鸡贼啊，真高明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UObject* FWeakObjectPtr::Get(/*bool bEvenIfPendingKill = false*/) const</t>
-  </si>
-  <si>
-    <t>// Using a literal here allows the optimizer to remove branches later down the chain.</t>
-  </si>
-  <si>
-    <t>return Internal_Get(false);</t>
-  </si>
-  <si>
-    <t>获取函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORCEINLINE void Reset()</t>
-  </si>
-  <si>
-    <t>ObjectIndex = INDEX_NONE;</t>
-  </si>
-  <si>
-    <t>ObjectSerialNumber = 0;</t>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计很高明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,18 +521,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -552,7 +554,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -572,7 +574,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -607,7 +609,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -629,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -650,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -685,7 +687,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -788,7 +790,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -804,210 +806,210 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
